--- a/tareas_importar.xlsx
+++ b/tareas_importar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/gestor_tareas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Seguimiento tareas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{94E8AC63-039A-489E-98F2-B0882A92641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0BB7FB2-B202-434B-B21C-6021A34D1925}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{590202DE-72B3-4E67-9A79-CA172363DF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>estado</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>Conversar con Ruth. Hospital de Natales se niega dar atención a estudiantes por Seguro Escolar. Existe desconocimiento de cómo opera el seguro tanto desde el Serviciode Salud como de la Directora. Se necesita entregar apoyo desde DAU (materiales y capacitaciones)</t>
+  </si>
+  <si>
+    <t>Reunión dotación Bíobío</t>
+  </si>
+  <si>
+    <t>Reunión para definir algunos cupos de prioridad</t>
+  </si>
+  <si>
+    <t>Situación plataforma Linares con cambio de dependencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver los acuerdos con Bastián </t>
   </si>
 </sst>
 </file>
@@ -781,16 +793,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
@@ -1737,6 +1749,55 @@
       </c>
       <c r="G36" s="10">
         <v>45883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>45888</v>
+      </c>
+      <c r="G37" s="10">
+        <v>45888</v>
+      </c>
+      <c r="H37" s="10">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>45888</v>
+      </c>
+      <c r="G38" s="10">
+        <v>45888</v>
       </c>
     </row>
   </sheetData>
